--- a/doc/01.30.2014 Meeting/Result.xlsx
+++ b/doc/01.30.2014 Meeting/Result.xlsx
@@ -10,14 +10,14 @@
     <sheet name="nbest" sheetId="1" r:id="rId1"/>
     <sheet name="nbest2" sheetId="3" r:id="rId2"/>
     <sheet name="models" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="26">
   <si>
     <t xml:space="preserve">method </t>
   </si>
@@ -84,6 +84,18 @@
   <si>
     <t xml:space="preserve">2waymodel_hybrid </t>
   </si>
+  <si>
+    <t>nbest_asrs</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Roc.v2_ca05</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +127,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -139,16 +157,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2222,7 +2296,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,90 +3185,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="5" width="9.140625" style="2"/>
-    <col min="6" max="8" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.73195969999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.91654290000000005</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.88800840000000003</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.45122269999999998</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.14023430000000001</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.16506129999999999</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1.198E-4</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1.473E-4</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.55006370000000004</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3202,209 +3259,209 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.88800840000000003</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.45122269999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.14023430000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.16506129999999999</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.198E-4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.473E-4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.55006370000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.62304479999999995</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>0.90263249999999995</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>0.86032070000000005</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>0.60135640000000001</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>0.16429659999999999</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>0.2168224</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J4" s="4">
         <v>3.9950000000000001E-4</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K4" s="4">
         <v>3.0069999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.7021482</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>0.97987849999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>0.94060790000000005</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>0.5957036</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>4.0243099999999997E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>0.1187843</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I6" s="4">
         <v>1.249E-4</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J6" s="4">
         <v>1.3779999999999999E-4</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K6" s="4">
         <v>9.2600000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.56517209999999996</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>0.96429860000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>0.89756849999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>0.86965590000000004</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>7.1402800000000002E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>0.20486289999999999</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>4.6129999999999999E-4</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="4">
         <v>3.7399999999999998E-4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="4">
         <v>2.8820000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.75729939999999996</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>0.97987849999999999</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>0.94060790000000005</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>0.48540109999999997</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>4.0243099999999997E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3">
         <v>0.1187843</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <v>1.158E-4</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="4">
         <v>1.3779999999999999E-4</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="4">
         <v>9.2600000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
         <v>0.6285193</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>0.96429860000000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>0.89756849999999999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>0.74296139999999999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>7.1402800000000002E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>0.20486289999999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <v>4.148E-4</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="4">
         <v>3.7399999999999998E-4</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K10" s="4">
         <v>2.8820000000000001E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.75624729999999996</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.97987849999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.94060790000000005</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.48750549999999998</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4.0243099999999997E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.1187843</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1.159E-4</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1.3779999999999999E-4</v>
-      </c>
-      <c r="K11" s="4">
-        <v>9.2600000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3412,178 +3469,302 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
+        <v>0.75624729999999996</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.97987849999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.94060790000000005</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.48750549999999998</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4.0243099999999997E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.1187843</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.159E-4</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1.3779999999999999E-4</v>
+      </c>
+      <c r="K12" s="4">
+        <v>9.2600000000000001E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.62252350000000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>0.96429860000000001</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>0.89756849999999999</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>0.75495310000000004</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>7.1402800000000002E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>0.20486289999999999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>4.1879999999999999E-4</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="4">
         <v>3.7399999999999998E-4</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="4">
         <v>2.8820000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.71836909999999998</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>0.90803509999999998</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>0.89201430000000004</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>0.56326169999999998</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>0.1839298</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>0.21597140000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <v>1.2210000000000001E-4</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J15" s="4">
         <v>1.4870000000000001E-4</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K15" s="4">
         <v>9.7600000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
         <v>0.61783109999999997</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>0.87811030000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>0.85463009999999995</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>0.76433790000000001</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>0.2437793</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H16" s="2">
         <v>0.29073979999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>4.2190000000000001E-4</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="4">
         <v>0</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K16" s="4">
         <v>3.0269999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
         <v>0.75440600000000002</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>0.97987849999999999</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>0.94060790000000005</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>0.49118810000000002</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>4.0243099999999997E-2</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="2">
         <v>0.1187843</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="4">
         <v>1.1620000000000001E-4</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="4">
         <v>1.3779999999999999E-4</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K18" s="4">
         <v>9.2600000000000001E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
         <v>0.60610010000000003</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>0.96429860000000001</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>0.89756849999999999</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <v>0.78779980000000005</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>7.1402800000000002E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>0.20486289999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="4">
         <v>4.3009999999999999E-4</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="4">
         <v>3.7399999999999998E-4</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K19" s="4">
         <v>2.8820000000000001E-4</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.74800529999999998</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.97987849999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.94060790000000005</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.50398949999999998</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4.0243099999999997E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.1187843</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.172E-4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1.3779999999999999E-4</v>
+      </c>
+      <c r="K21" s="4">
+        <v>9.2600000000000001E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.61835249999999997</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.96429860000000001</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.89756849999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.7632951</v>
+      </c>
+      <c r="G22" s="2">
+        <v>7.1402800000000002E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.20486289999999999</v>
+      </c>
+      <c r="I22" s="4">
+        <v>4.216E-4</v>
+      </c>
+      <c r="J22" s="4">
+        <v>3.7399999999999998E-4</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2.8820000000000001E-4</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>